--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\Selenium_Java_ThanhTester\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5EA02-66F7-4E11-A243-02DBB851D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E213AA-542C-4EAF-88C4-BEBB90E958CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -133,6 +133,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -412,7 +416,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -441,7 +445,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>123456</v>
       </c>
     </row>
@@ -452,6 +456,7 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -460,7 +465,7 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>123</v>
       </c>
     </row>
@@ -471,7 +476,7 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>123456</v>
       </c>
     </row>
@@ -482,7 +487,7 @@
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>123456</v>
       </c>
     </row>
@@ -493,7 +498,7 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>123456</v>
       </c>
     </row>
@@ -504,7 +509,7 @@
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>123456</v>
       </c>
     </row>
@@ -515,7 +520,7 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>123456</v>
       </c>
     </row>

--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E213AA-542C-4EAF-88C4-BEBB90E958CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFBE134-D7BB-4232-97D8-849001FEA83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>function</t>
   </si>
@@ -49,15 +49,6 @@
     <t>loginSuccessAdminPage</t>
   </si>
   <si>
-    <t>user_abc@example.com</t>
-  </si>
-  <si>
-    <t>loginSuccessWithSellerAccount</t>
-  </si>
-  <si>
-    <t>seller@example.com</t>
-  </si>
-  <si>
     <t>loginFailWithInvalidEmailFormat</t>
   </si>
   <si>
@@ -67,7 +58,10 @@
     <t>admin@example.com</t>
   </si>
   <si>
-    <t>thanhtest@gmail.com</t>
+    <t>thanhtest123@gmail.com</t>
+  </si>
+  <si>
+    <t>loginwithnullEmailPassword</t>
   </si>
 </sst>
 </file>
@@ -77,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +85,14 @@
       <color theme="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -137,6 +139,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,7 +424,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -442,9 +450,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="7">
         <v>123456</v>
       </c>
@@ -485,40 +491,36 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8">
         <v>123456</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7">
-        <v>123456</v>
-      </c>
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
         <v>123456</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7">
         <v>123456</v>

--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFBE134-D7BB-4232-97D8-849001FEA83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BCC0EA-138F-439A-AE81-FCCE392BA061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>function</t>
   </si>
@@ -49,6 +49,9 @@
     <t>loginSuccessAdminPage</t>
   </si>
   <si>
+    <t>user_abc@example.com</t>
+  </si>
+  <si>
     <t>loginFailWithInvalidEmailFormat</t>
   </si>
   <si>
@@ -58,7 +61,7 @@
     <t>admin@example.com</t>
   </si>
   <si>
-    <t>thanhtest123@gmail.com</t>
+    <t>thanhtest@gmail.com</t>
   </si>
   <si>
     <t>loginwithnullEmailPassword</t>
@@ -117,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -135,14 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +420,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -450,8 +446,10 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" s="7">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
         <v>123456</v>
       </c>
     </row>
@@ -462,7 +460,6 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -471,7 +468,7 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="1">
         <v>123</v>
       </c>
     </row>
@@ -482,7 +479,7 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="1">
         <v>123456</v>
       </c>
     </row>
@@ -491,38 +488,37 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>123456</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
         <v>123456</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9" t="s">
-        <v>3</v>
+      <c r="A9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
         <v>123456</v>
       </c>
     </row>
@@ -536,7 +532,7 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{A6B8963C-5735-4190-B891-8DD29A822F82}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{4B2D703A-46CD-4867-970D-522851F0B10D}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{B9C71C18-DFF3-4416-B6FC-56BA892B3884}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{549E7EA3-95BF-454A-9FE9-22DCED626173}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
